--- a/Data/Coral_tracking/Heatmap_Jan2023_3.xlsx
+++ b/Data/Coral_tracking/Heatmap_Jan2023_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00109219\Dropbox\R_projects\Porites_Survival_2023\Data\Coral_tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00109219\Dropbox\R_projects\Starko_et_al_Porites_Survival_2023\Data\Coral_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CF90FE-2EF7-4D42-BAAD-949D64ACF22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0823BD9B-0D8A-4D06-BC4E-7EEE81D0CED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{354DB0B4-D6F0-D847-BE35-8E2F4FA7E2DC}"/>
   </bookViews>
@@ -2910,7 +2910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2940,6 +2940,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -52060,3991 +52068,3992 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFC659A-9A73-6B46-AA3C-203456B88D62}">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="8">
         <v>2014</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="8">
         <v>2017</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="8">
         <v>2018</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="8">
         <v>2019</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="8" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="11">
         <v>839</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>99</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>99</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>7</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>99</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>7</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>99</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>4</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>99</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>99</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="8">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="11">
         <v>627</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>99</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <v>99</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>99</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>5</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>99</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <v>99</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="8">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>99</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>99</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="8">
         <v>99</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="8">
         <v>6</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="8">
         <v>99</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="8">
         <v>3</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>99</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>99</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <v>99</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <v>99</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="8">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="11">
         <v>601</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>99</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>99</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>18</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>99</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>19</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
         <v>99</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <v>99</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="8">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="11">
         <v>608</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>99</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>99</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>20</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>99</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <v>99</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <v>99</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="8">
         <v>6</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>659</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>99</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>99</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>99</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>7</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>6</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
         <v>99</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <v>99</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="8">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="11">
         <v>867</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>99</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>99</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>99</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>99</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>10</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
         <v>99</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <v>99</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="8">
         <v>8</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>99</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>99</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>11</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>13</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="8">
         <v>99</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="8">
         <v>11</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>11</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <v>6</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="8">
         <v>13</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="8">
         <v>9</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>19</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>99</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>99</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>6</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>6</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>99</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
         <v>6</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>6</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <v>99</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>99</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="8">
         <v>10</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>1.4343282413511895E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="8">
         <v>99</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="8">
         <v>99</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="8">
         <v>99</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
         <v>99</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="8">
         <v>99</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="8">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>38</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>0.40785196721995665</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <v>7</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>99</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <v>99</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <v>7</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <v>99</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <v>1</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="8">
         <v>6</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="8">
         <v>12</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="13">
         <v>38</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>0.40785196721995665</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="8">
         <v>4</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="8">
         <v>99</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <v>99</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="8">
         <v>16</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="8">
         <v>4</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="8">
         <v>99</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="8">
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="8">
         <v>99</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="8">
         <v>99</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="8">
         <v>13</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="U15" t="s">
+      <c r="U15" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="11">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>38</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>0.40785196721995665</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>15</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <v>17</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>99</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <v>99</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>4</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
         <v>99</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="8">
         <v>99</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
         <v>99</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="8">
         <v>99</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="8">
         <v>14</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="11">
         <v>717</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="8">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="8">
         <v>99</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="8">
         <v>99</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <v>4</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="8">
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="8">
         <v>1</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="8">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="8">
         <v>99</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="8">
         <v>99</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="8">
         <v>15</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="U17" t="s">
+      <c r="U17" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="11">
         <v>782</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>34</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>17</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <v>99</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <v>99</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <v>4</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>4</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
         <v>99</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="8">
         <v>99</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="8">
         <v>99</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="8">
         <v>99</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="8">
         <v>16</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U18" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>35</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="8">
         <v>3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="8">
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>11</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="8">
         <v>12</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="8">
         <v>6</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="8">
         <v>99</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="8">
         <v>6</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="8">
         <v>17</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="U19" t="s">
+      <c r="U19" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <v>0.57677119066984384</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>19</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <v>99</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="8">
         <v>99</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>99</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="8">
         <v>99</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <v>99</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="8">
         <v>7</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="8">
         <v>6</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="8">
         <v>99</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="8">
         <v>18</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U20" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <v>0.57677119066984384</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="8">
         <v>99</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="8">
         <v>99</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>99</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="8">
         <v>12</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="8">
         <v>99</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <v>99</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="8">
         <v>12</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="8">
         <v>6</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <v>99</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="8">
         <v>19</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U21" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>21</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <v>99</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="8">
         <v>99</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <v>14</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>14</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="8">
         <v>15</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="8">
         <v>14</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="8">
         <v>99</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="8">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <v>14</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="8">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="11">
         <v>499</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>32</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>22</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
         <v>6</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="8">
         <v>99</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <v>6</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="8">
         <v>13</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="8">
         <v>11</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
         <v>99</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="8">
         <v>99</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
         <v>99</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="8">
         <v>21</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24" s="11">
         <v>752</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>32</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>23</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <v>99</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="8">
         <v>99</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <v>24</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>25</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
         <v>99</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="8">
         <v>99</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="8">
         <v>99</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="8">
         <v>99</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="8">
         <v>22</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="11">
         <v>753</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>32</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <v>24</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>99</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="8">
         <v>99</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>6</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="8">
         <v>6</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
         <v>99</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="8">
         <v>99</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="8">
         <v>99</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="8">
         <v>99</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="8">
         <v>23</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+      <c r="A26" s="14">
         <v>758</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="15">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>25</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <v>99</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="8">
         <v>99</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <v>6</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="8">
         <v>6</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
         <v>99</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="8">
         <v>99</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="8">
         <v>99</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="8">
         <v>99</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="8">
         <v>24</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27" s="11">
         <v>136</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>30</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>26</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>7</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="8">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>12</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
         <v>99</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <v>99</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="8">
         <v>99</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="8">
         <v>99</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="8">
         <v>25</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U27" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28" s="11">
         <v>723</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>27</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="8">
         <v>1.2234667187215671</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="8">
         <v>27</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="8">
         <v>99</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="8">
         <v>99</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <v>4</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="8">
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="8">
         <v>4</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="8">
         <v>1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
         <v>99</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="8">
         <v>99</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="8">
         <v>26</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29" s="11">
         <v>474</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="8">
         <v>1.2234667187215671</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="8">
         <v>28</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="8">
         <v>6</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="8">
         <v>6</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <v>6</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="8">
         <v>6</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
         <v>99</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="8">
         <v>99</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="8">
         <v>99</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="8">
         <v>99</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="8">
         <v>27</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U29" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30" s="11">
         <v>790</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>5</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
         <v>29</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="8">
         <v>99</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="8">
         <v>99</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="8">
         <v>25</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="8">
         <v>25</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="8">
         <v>28</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
         <v>99</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="8">
         <v>99</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="8">
         <v>99</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="8">
         <v>28</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U30" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31" s="11">
         <v>827</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>5</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
         <v>30</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="8">
         <v>99</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="8">
         <v>99</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="8">
         <v>25</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="8">
         <v>25</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="8">
         <v>2</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
         <v>99</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="8">
         <v>99</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="8">
         <v>99</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="8">
         <v>29</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U31" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>8</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
         <v>31</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="8">
         <v>25</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="8">
         <v>99</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="8">
         <v>99</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="8">
         <v>25</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
         <v>99</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="8">
         <v>99</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="8">
         <v>99</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="8">
         <v>99</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="8">
         <v>30</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U32" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="11">
         <v>604</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>15</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <v>32</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="8">
         <v>99</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="8">
         <v>24</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="8">
         <v>99</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
         <v>99</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="8">
         <v>99</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="8">
         <v>99</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="8">
         <v>99</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="8">
         <v>31</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U33" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34" s="11">
         <v>670</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>19</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <v>33</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="8">
         <v>99</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="8">
         <v>99</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="8">
         <v>25</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="8">
         <v>25</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="8">
         <v>99</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
         <v>99</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="8">
         <v>99</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="8">
         <v>99</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="8">
         <v>32</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U34" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+      <c r="A35" s="14">
         <v>650</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="15">
         <v>19</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
         <v>34</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="8">
         <v>99</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="8">
         <v>99</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="8">
         <v>25</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="8">
         <v>99</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
         <v>99</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="8">
         <v>99</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="8">
         <v>99</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="8">
         <v>99</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="8">
         <v>33</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U35" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36" s="11">
         <v>230</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="13">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="8">
         <v>0.40785196721995665</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="8">
         <v>35</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="8">
         <v>99</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="8">
         <v>99</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="8">
         <v>99</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="8">
         <v>25</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="8">
         <v>99</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="8">
         <v>99</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="8">
         <v>6</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="8">
         <v>99</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="8">
         <v>99</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="8">
         <v>99</v>
       </c>
-      <c r="R36" t="s">
-        <v>72</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="R36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S36" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U36" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37" s="11">
         <v>241</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="8">
         <v>8</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="8">
         <v>36</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="8">
         <v>25</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="8">
         <v>99</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="8">
         <v>25</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="8">
         <v>25</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
         <v>99</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="8">
         <v>99</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="8">
         <v>99</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="8">
         <v>99</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U37" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38" s="11">
         <v>172</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="8">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="8">
         <v>0.40785196721995665</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="8">
         <v>37</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="8">
         <v>25</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="8">
         <v>99</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="8">
         <v>99</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="8">
         <v>1</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="8">
         <v>99</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="8">
         <v>99</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="8">
         <v>1</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="8">
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="8">
         <v>1</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39" s="11">
         <v>888</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="8">
         <v>8</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="8">
         <v>38</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="8">
         <v>99</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="8">
         <v>99</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="8">
         <v>99</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="8">
         <v>25</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
         <v>99</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="8">
         <v>99</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="8">
         <v>99</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="8">
         <v>99</v>
       </c>
-      <c r="U39" t="s">
+      <c r="U39" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40" s="11">
         <v>325</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="8">
         <v>34</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="8">
         <v>39</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="8">
         <v>25</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="8">
         <v>99</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="8">
         <v>25</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="8">
         <v>25</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
         <v>99</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="8">
         <v>99</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="8">
         <v>99</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="8">
         <v>99</v>
       </c>
-      <c r="U40" t="s">
+      <c r="U40" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41" s="11">
         <v>859</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="8">
         <v>34</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="8">
         <v>40</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="8">
         <v>99</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="8">
         <v>99</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="8">
         <v>1</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="8">
         <v>25</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="8">
         <v>1</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="8">
         <v>1</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="8">
         <v>1</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="8">
         <v>99</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="8">
         <v>1</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U41" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="8">
         <v>34</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="8">
         <v>41</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="8">
         <v>99</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="8">
         <v>99</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="8">
         <v>25</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="8">
         <v>25</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="8">
         <v>99</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
         <v>99</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="8">
         <v>99</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="8">
         <v>99</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U42" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43" s="11">
         <v>694</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="8">
         <v>35</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="8">
         <v>42</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="8">
         <v>99</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="8">
         <v>99</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="8">
         <v>25</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="8">
         <v>1</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="8">
         <v>1</v>
       </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
         <v>99</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="8">
         <v>99</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="8">
         <v>99</v>
       </c>
-      <c r="U43" t="s">
+      <c r="U43" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="8">
         <v>35</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="8">
         <v>43</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="8">
         <v>25</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="8">
         <v>25</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="8">
         <v>25</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="8">
         <v>25</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
         <v>99</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="8">
         <v>99</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="8">
         <v>99</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="8">
         <v>99</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U44" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45" s="11">
         <v>401</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="8">
         <v>25</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="8">
         <v>0.57677119066984384</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="8">
         <v>44</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="8">
         <v>25</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="8">
         <v>99</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="8">
         <v>99</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="8">
         <v>25</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="8">
         <v>99</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="8">
         <v>99</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
+      <c r="M45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="8">
         <v>99</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="8">
         <v>99</v>
       </c>
-      <c r="U45" t="s">
+      <c r="U45" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="8">
         <v>30</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="8">
         <v>45</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="8">
         <v>99</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="8">
         <v>99</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="8">
         <v>6</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="8">
         <v>6</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
         <v>99</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="8">
         <v>99</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="8">
         <v>99</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="8">
         <v>99</v>
       </c>
-      <c r="U46" t="s">
+      <c r="U46" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47" s="11">
         <v>476</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="8">
         <v>27</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="8">
         <v>1.2234667187215671</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="8">
         <v>46</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="8">
         <v>26</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="8">
         <v>26</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="8">
         <v>26</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="8">
         <v>26</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
         <v>99</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="8">
         <v>99</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="8">
         <v>99</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="8">
         <v>99</v>
       </c>
-      <c r="U47" t="s">
+      <c r="U47" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48" s="11">
         <v>489</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="15">
         <v>32</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="8">
         <v>1</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="8">
         <v>47</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="8">
         <v>25</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="8">
         <v>99</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="8">
         <v>25</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="8">
         <v>24</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
         <v>99</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="8">
         <v>99</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="8">
         <v>99</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="8">
         <v>99</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U48" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="8">
         <v>27</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="8">
         <v>1.2234667187215671</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="8">
         <v>48</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="8">
         <v>24</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="8">
         <v>24</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="8">
         <v>24</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="8">
         <v>24</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="8">
         <v>29</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="8">
         <v>1</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
         <v>99</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="8">
         <v>99</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U49" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50" s="11">
         <v>821</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="8">
         <v>5</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
         <v>49</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="8">
         <v>99</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="8">
         <v>99</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="8">
         <v>7</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="8">
         <v>7</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="8">
         <v>2</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="8">
         <v>7</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="8">
         <v>11</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="8">
         <v>99</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="8">
         <v>7</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U50" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51" s="11">
         <v>831</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="8">
         <v>5</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <v>50</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="8">
         <v>99</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="8">
         <v>99</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="8">
         <v>21</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="8">
         <v>11</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="8">
         <v>11</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="8">
         <v>99</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="8">
         <v>11</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="8">
         <v>6</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="8">
         <v>13</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U51" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="8">
         <v>5</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
         <v>51</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="8">
         <v>99</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="8">
         <v>99</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="8">
         <v>7</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="8">
         <v>7</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="8">
         <v>7</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="8">
         <v>7</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="8">
         <v>7</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="8">
         <v>7</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="8">
         <v>7</v>
       </c>
-      <c r="U52" t="s">
+      <c r="U52" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="8">
         <v>5</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
         <v>52</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="8">
         <v>99</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="8">
         <v>99</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="8">
         <v>6</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="8">
         <v>1</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="8">
         <v>6</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="8">
         <v>6</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="8">
         <v>99</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="8">
         <v>99</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="8">
         <v>1</v>
       </c>
-      <c r="U53" t="s">
+      <c r="U53" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54" s="11">
         <v>812</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="8">
         <v>5</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
         <v>53</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="8">
         <v>99</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="8">
         <v>99</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="8">
         <v>7</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="8">
         <v>7</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
         <v>99</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="8">
         <v>99</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="8">
         <v>99</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="8">
         <v>99</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U54" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55" s="11">
         <v>596</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="8">
         <v>15</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
         <v>54</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="8">
         <v>99</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="8">
         <v>6</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="8">
         <v>6</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="8">
         <v>6</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
         <v>99</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="8">
         <v>99</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="8">
         <v>99</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="8">
         <v>99</v>
       </c>
-      <c r="U55" t="s">
+      <c r="U55" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="8">
         <v>34</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
         <v>55</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="8">
         <v>99</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="8">
         <v>99</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="8">
         <v>6</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="8">
         <v>6</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="8">
         <v>8</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="8">
         <v>6</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="8">
         <v>6</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="8">
         <v>99</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="8">
         <v>6</v>
       </c>
-      <c r="U56" t="s">
+      <c r="U56" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="8">
         <v>3</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="8">
         <v>0.40785196721995665</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="8">
         <v>56</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="8">
         <v>6</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="8">
         <v>99</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="8">
         <v>99</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="8">
         <v>7</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="8">
         <v>99</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="8">
         <v>99</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="8">
         <v>9</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="8">
         <v>7</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="8">
         <v>6</v>
       </c>
-      <c r="U57" t="s">
+      <c r="U57" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58" s="11">
         <v>880</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="8">
         <v>8</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="8">
         <v>57</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="8">
         <v>99</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="8">
         <v>99</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="8">
         <v>99</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="8">
         <v>6</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="8">
         <v>6</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="8">
         <v>6</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="8">
         <v>22</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="8">
         <v>6</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="8">
         <v>6</v>
       </c>
-      <c r="U58" t="s">
+      <c r="U58" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59" s="11">
         <v>1086</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="8">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="8">
         <v>58</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="8">
         <v>99</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="8">
         <v>7</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="8">
         <v>7</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="8">
         <v>7</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="8">
         <v>6</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="8">
         <v>6</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="8">
         <v>7</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="8">
         <v>7</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="8">
         <v>6</v>
       </c>
-      <c r="U59" t="s">
+      <c r="U59" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60" s="11">
         <v>883</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="8">
         <v>8</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="8">
         <v>59</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="8">
         <v>99</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="8">
         <v>99</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="8">
         <v>99</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="8">
         <v>7</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="8">
         <v>1</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+      <c r="M60" s="8">
         <v>99</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="8">
         <v>99</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="8">
         <v>99</v>
       </c>
-      <c r="U60" t="s">
+      <c r="U60" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="8">
         <v>32</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="8">
         <v>60</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="8">
         <v>99</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="8">
         <v>99</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="8">
         <v>10</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="8">
         <v>10</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="8">
         <v>30</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="8">
         <v>31</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
+      <c r="M61" s="8">
+        <v>0</v>
+      </c>
+      <c r="N61" s="8">
         <v>99</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="8">
         <v>99</v>
       </c>
-      <c r="U61" t="s">
+      <c r="U61" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62" s="11">
         <v>853</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="8">
         <v>34</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="8">
         <v>61</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="8">
         <v>99</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="8">
         <v>99</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="8">
         <v>6</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="8">
         <v>7</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="8">
         <v>6</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="8">
         <v>99</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="8">
         <v>7</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="8">
         <v>99</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="8">
         <v>99</v>
       </c>
-      <c r="U62" t="s">
+      <c r="U62" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="8">
         <v>34</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="8">
         <v>62</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="8">
         <v>99</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="8">
         <v>99</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="8">
         <v>6</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="8">
         <v>6</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="8">
         <v>6</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="8">
         <v>6</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="8">
         <v>1</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="8">
         <v>99</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="8">
         <v>1</v>
       </c>
-      <c r="U63" t="s">
+      <c r="U63" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64" s="11">
         <v>847</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="8">
         <v>34</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="8">
         <v>63</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="8">
         <v>99</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="8">
         <v>99</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="8">
         <v>13</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="8">
         <v>1</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="K64" s="8">
+        <v>0</v>
+      </c>
+      <c r="L64" s="8">
         <v>99</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="8">
         <v>99</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="8">
         <v>99</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="8">
         <v>99</v>
       </c>
-      <c r="U64" t="s">
+      <c r="U64" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65" s="11">
         <v>874</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="8">
         <v>35</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="8">
         <v>64</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="8">
         <v>99</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="8">
         <v>99</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="8">
         <v>9</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="8">
         <v>9</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="K65" s="8">
+        <v>0</v>
+      </c>
+      <c r="L65" s="8">
         <v>99</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="8">
         <v>99</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="8">
         <v>99</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="8">
         <v>99</v>
       </c>
-      <c r="U65" t="s">
+      <c r="U65" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66" s="11">
         <v>5</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="8">
         <v>35</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="8">
         <v>65</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="8">
         <v>6</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="8">
         <v>6</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="8">
         <v>6</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="8">
         <v>6</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="8">
         <v>2</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="8">
         <v>1</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="8">
         <v>1</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="8">
         <v>99</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="8">
         <v>1</v>
       </c>
-      <c r="U66" t="s">
+      <c r="U66" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="8">
         <v>35</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="8">
         <v>66</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="8">
         <v>99</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="8">
         <v>6</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="8">
         <v>6</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="8">
         <v>99</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="8">
         <v>6</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="8">
         <v>6</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="8">
         <v>6</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="8">
         <v>6</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="8">
         <v>99</v>
       </c>
-      <c r="U67" t="s">
+      <c r="U67" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68" s="11">
         <v>97</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="8">
         <v>35</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="8">
         <v>67</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="8">
         <v>7</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="8">
         <v>7</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="8">
         <v>7</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="8">
         <v>7</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="8">
         <v>1</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
+      <c r="L68" s="8">
+        <v>0</v>
+      </c>
+      <c r="M68" s="8">
         <v>99</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="8">
         <v>99</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="8">
         <v>99</v>
       </c>
-      <c r="U68" t="s">
+      <c r="U68" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69" s="11">
         <v>119</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="8">
         <v>35</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="8">
         <v>68</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="8">
         <v>99</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="8">
         <v>99</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="8">
         <v>6</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="8">
         <v>1</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
+      <c r="K69" s="8">
+        <v>0</v>
+      </c>
+      <c r="L69" s="8">
         <v>99</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="8">
         <v>99</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="8">
         <v>99</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="8">
         <v>99</v>
       </c>
-      <c r="U69" t="s">
+      <c r="U69" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="8">
         <v>35</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="8">
         <v>0.49951460519109475</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="8">
         <v>69</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="8">
         <v>99</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="8">
         <v>99</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="8">
         <v>6</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="8">
         <v>1</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
         <v>99</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="8">
         <v>99</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="8">
         <v>99</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="8">
         <v>99</v>
       </c>
-      <c r="U70" t="s">
+      <c r="U70" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="8">
         <v>25</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="8">
         <v>0.57677119066984384</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="8">
         <v>70</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="8">
         <v>33</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="8">
         <v>99</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="8">
         <v>99</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="8">
         <v>10</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="8">
         <v>99</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="8">
         <v>99</v>
       </c>
       <c r="M71" s="8">
         <v>8</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="8">
         <v>23</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="8">
         <v>10</v>
       </c>
-      <c r="U71" t="s">
+      <c r="U71" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="8">
         <v>25</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="8">
         <v>0.57677119066984384</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="8">
         <v>71</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="8">
         <v>6</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="8">
         <v>99</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="8">
         <v>99</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="8">
         <v>99</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="8">
         <v>99</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="8">
         <v>99</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="8">
         <v>6</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="8">
         <v>6</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="8">
         <v>6</v>
       </c>
-      <c r="U72" t="s">
+      <c r="U72" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="11">
         <v>430</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="8">
         <v>30</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F73">
-        <v>72</v>
-      </c>
-      <c r="G73">
+      <c r="F73" s="8">
+        <v>72</v>
+      </c>
+      <c r="G73" s="8">
         <v>1</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="8">
         <v>99</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="8">
         <v>6</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="8">
         <v>6</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="8">
         <v>1</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8">
         <v>99</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="8">
         <v>99</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="8">
         <v>99</v>
       </c>
       <c r="U73" s="8" t="s">
@@ -56067,7 +56076,7 @@
       <c r="E74" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="8">
         <v>73</v>
       </c>
       <c r="G74" s="8">
@@ -56097,307 +56106,307 @@
       <c r="O74" s="8">
         <v>99</v>
       </c>
-      <c r="U74" t="s">
+      <c r="U74" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75" s="11">
         <v>144</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="8">
         <v>30</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="8">
         <v>74</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="8">
         <v>21</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="8">
         <v>11</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="8">
         <v>21</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="8">
         <v>1</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
         <v>99</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="8">
         <v>99</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="8">
         <v>99</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="8">
         <v>99</v>
       </c>
-      <c r="U75" t="s">
+      <c r="U75" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76" s="11">
         <v>434</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="8">
         <v>30</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="8">
         <v>75</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="8">
         <v>10</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="8">
         <v>99</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="8">
         <v>99</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="8">
         <v>32</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
+      <c r="K76" s="8">
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
         <v>99</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="8">
         <v>99</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="8">
         <v>99</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="8">
         <v>99</v>
       </c>
-      <c r="U76" t="s">
+      <c r="U76" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="8">
         <v>30</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="8">
         <v>76</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="8">
         <v>6</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="8">
         <v>99</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="8">
         <v>13</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="8">
         <v>13</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
+      <c r="K77" s="8">
+        <v>0</v>
+      </c>
+      <c r="L77" s="8">
         <v>99</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="8">
         <v>99</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="8">
         <v>99</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="8">
         <v>99</v>
       </c>
-      <c r="U77" t="s">
+      <c r="U77" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78" s="11">
         <v>151</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="8">
         <v>30</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="8">
         <v>1.0228766597141277</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="8">
         <v>77</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="8">
         <v>10</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="8">
         <v>23</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="8">
         <v>10</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="8">
         <v>10</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
+      <c r="K78" s="8">
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
         <v>99</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="8">
         <v>99</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="8">
         <v>99</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="8">
         <v>99</v>
       </c>
-      <c r="U78" t="s">
+      <c r="U78" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79" s="11">
         <v>46</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="8">
         <v>27</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="8">
         <v>1.2234667187215671</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="8">
         <v>78</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="8">
         <v>6</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="8">
         <v>99</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="8">
         <v>6</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="8">
         <v>6</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="8">
         <v>6</v>
       </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
+      <c r="L79" s="8">
+        <v>0</v>
+      </c>
+      <c r="M79" s="8">
         <v>99</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="8">
         <v>99</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="8">
         <v>99</v>
       </c>
-      <c r="U79" t="s">
+      <c r="U79" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80" s="11">
         <v>591</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="8">
         <v>15</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
         <v>79</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="8">
         <v>99</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="8">
         <v>7</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="8">
         <v>7</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="8">
         <v>7</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="8">
         <v>1</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="8">
         <v>7</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="8">
         <v>7</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="8">
         <v>99</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="8">
         <v>99</v>
       </c>
-      <c r="U80" t="s">
+      <c r="U80" s="8" t="s">
         <v>134</v>
       </c>
     </row>
